--- a/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_stats.xlsx
+++ b/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_stats.xlsx
@@ -1146,10 +1146,10 @@
         <v>126</v>
       </c>
       <c r="D2">
-        <v>4932743.953034115</v>
+        <v>9887777.722584257</v>
       </c>
       <c r="E2">
-        <v>175.6099931232284</v>
+        <v>351.8886097180524</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>752.4158072485092</v>
+        <v>345.2908336473051</v>
       </c>
       <c r="E3">
-        <v>231.3333333333333</v>
+        <v>106.1666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>128</v>
       </c>
       <c r="D4">
-        <v>437693.5674493025</v>
+        <v>2320019.121670413</v>
       </c>
       <c r="E4">
-        <v>59.43452360011727</v>
+        <v>314.4135092348285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>129</v>
       </c>
       <c r="D5">
-        <v>3578.749404523365</v>
+        <v>17888.26361671732</v>
       </c>
       <c r="E5">
-        <v>60.335734870317</v>
+        <v>301.5878962536023</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>130</v>
       </c>
       <c r="D6">
-        <v>56501651.41260188</v>
+        <v>51145512.25110474</v>
       </c>
       <c r="E6">
-        <v>377.443706275181</v>
+        <v>341.5389621683133</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>131</v>
       </c>
       <c r="D7">
-        <v>769613.3090170136</v>
+        <v>2132571.463899601</v>
       </c>
       <c r="E7">
-        <v>104.5731670673077</v>
+        <v>290.373522636218</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>132</v>
       </c>
       <c r="D8">
-        <v>9241350.528914964</v>
+        <v>16887856.49958404</v>
       </c>
       <c r="E8">
-        <v>189.3230594116859</v>
+        <v>345.78533566933</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>133</v>
       </c>
       <c r="D9">
-        <v>25609466.32343343</v>
+        <v>16851175.87730509</v>
       </c>
       <c r="E9">
-        <v>489.9202107620594</v>
+        <v>322.4184060902249</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>134</v>
       </c>
       <c r="D10">
-        <v>4641009.050039292</v>
+        <v>5137872.690437656</v>
       </c>
       <c r="E10">
-        <v>403.831967584395</v>
+        <v>447.0649629806544</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>135</v>
       </c>
       <c r="D11">
-        <v>5541288.018310777</v>
+        <v>9150744.290654924</v>
       </c>
       <c r="E11">
-        <v>186.5801967243756</v>
+        <v>307.857877152403</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1316,10 +1316,10 @@
         <v>136</v>
       </c>
       <c r="D12">
-        <v>8788.909008197652</v>
+        <v>23894.35072890129</v>
       </c>
       <c r="E12">
-        <v>64.36194746957079</v>
+        <v>175.1595131326073</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>15661245.45422158</v>
+        <v>14424958.42431058</v>
       </c>
       <c r="E13">
-        <v>201.3797677351503</v>
+        <v>185.5357109434534</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>138</v>
       </c>
       <c r="D14">
-        <v>9651085.618325757</v>
+        <v>2779634.428621654</v>
       </c>
       <c r="E14">
-        <v>466.5659992194771</v>
+        <v>134.2693490352822</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1367,10 +1367,10 @@
         <v>139</v>
       </c>
       <c r="D15">
-        <v>1926872.403957361</v>
+        <v>1357553.897056876</v>
       </c>
       <c r="E15">
-        <v>359.2541508601676</v>
+        <v>253.105725628584</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>73351517.20243463</v>
+        <v>65059133.85884734</v>
       </c>
       <c r="E16">
-        <v>372.081146121343</v>
+        <v>330.0210924569592</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1401,10 +1401,10 @@
         <v>141</v>
       </c>
       <c r="D17">
-        <v>4394214.155299518</v>
+        <v>9371346.455718869</v>
       </c>
       <c r="E17">
-        <v>185.3478610850983</v>
+        <v>395.2856880989858</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>142</v>
       </c>
       <c r="D18">
-        <v>374270.6130623071</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>186.3644595359366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1435,10 +1435,10 @@
         <v>143</v>
       </c>
       <c r="D19">
-        <v>38709573.92015873</v>
+        <v>34911771.16507363</v>
       </c>
       <c r="E19">
-        <v>304.8665775147757</v>
+        <v>275.0153950983465</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1452,10 +1452,10 @@
         <v>144</v>
       </c>
       <c r="D20">
-        <v>269622.3685953419</v>
+        <v>221658.4775703541</v>
       </c>
       <c r="E20">
-        <v>385.918999728187</v>
+        <v>317.2685512367491</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1469,10 +1469,10 @@
         <v>145</v>
       </c>
       <c r="D21">
-        <v>16758463.29485233</v>
+        <v>21678960.12228134</v>
       </c>
       <c r="E21">
-        <v>318.7210440806653</v>
+        <v>412.2300334050049</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1486,10 +1486,10 @@
         <v>146</v>
       </c>
       <c r="D22">
-        <v>4069061.669957316</v>
+        <v>5862959.677131101</v>
       </c>
       <c r="E22">
-        <v>270.7919683609339</v>
+        <v>390.1076600473152</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>147</v>
       </c>
       <c r="D23">
-        <v>912355991.9692947</v>
+        <v>1192117762.126036</v>
       </c>
       <c r="E23">
-        <v>314.2909663147082</v>
+        <v>410.6855149448448</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1520,10 +1520,10 @@
         <v>148</v>
       </c>
       <c r="D24">
-        <v>150052583.6702404</v>
+        <v>61301433.95422214</v>
       </c>
       <c r="E24">
-        <v>374.0827142051206</v>
+        <v>151.7581608433057</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1537,10 +1537,10 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>2581917.987628112</v>
+        <v>3496439.434468775</v>
       </c>
       <c r="E25">
-        <v>264.319128445889</v>
+        <v>357.943134150068</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1554,10 +1554,10 @@
         <v>150</v>
       </c>
       <c r="D26">
-        <v>538576.502247815</v>
+        <v>238866.7263035734</v>
       </c>
       <c r="E26">
-        <v>523.1654615772659</v>
+        <v>231.6071128299983</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1571,10 +1571,10 @@
         <v>151</v>
       </c>
       <c r="D27">
-        <v>10728958.3391691</v>
+        <v>18246203.81416432</v>
       </c>
       <c r="E27">
-        <v>197.8187472017014</v>
+        <v>336.4108129757108</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1588,10 +1588,10 @@
         <v>152</v>
       </c>
       <c r="D28">
-        <v>3344428.626562011</v>
+        <v>3084208.203015845</v>
       </c>
       <c r="E28">
-        <v>407.3129585427827</v>
+        <v>375.6033240570655</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>153</v>
       </c>
       <c r="D29">
-        <v>45323.59863808444</v>
+        <v>63713.25771625413</v>
       </c>
       <c r="E29">
-        <v>280.4717304397487</v>
+        <v>394.2124500285551</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1622,10 +1622,10 @@
         <v>154</v>
       </c>
       <c r="D30">
-        <v>463604.877756301</v>
+        <v>562590.9273942907</v>
       </c>
       <c r="E30">
-        <v>133.5881839506846</v>
+        <v>162.7211008673831</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1639,10 +1639,10 @@
         <v>155</v>
       </c>
       <c r="D31">
-        <v>210592866.9372239</v>
+        <v>123310113.5217818</v>
       </c>
       <c r="E31">
-        <v>395.0587006814836</v>
+        <v>231.0381985293169</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1656,10 +1656,10 @@
         <v>156</v>
       </c>
       <c r="D32">
-        <v>832732.4583532787</v>
+        <v>663943.3157996824</v>
       </c>
       <c r="E32">
-        <v>428.3125266196583</v>
+        <v>341.5107188490843</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1673,10 +1673,10 @@
         <v>157</v>
       </c>
       <c r="D33">
-        <v>62674.83688866405</v>
+        <v>34945.65945721281</v>
       </c>
       <c r="E33">
-        <v>160</v>
+        <v>89.24037366142629</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1690,10 +1690,10 @@
         <v>158</v>
       </c>
       <c r="D34">
-        <v>222538752.1129904</v>
+        <v>226157598.3403767</v>
       </c>
       <c r="E34">
-        <v>426.1784906314864</v>
+        <v>433.0005252101792</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1707,10 +1707,10 @@
         <v>159</v>
       </c>
       <c r="D35">
-        <v>100152.6195959686</v>
+        <v>188900.4328276409</v>
       </c>
       <c r="E35">
-        <v>148.2752092193716</v>
+        <v>279.6693647962683</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1724,10 +1724,10 @@
         <v>160</v>
       </c>
       <c r="D36">
-        <v>365685100.7370428</v>
+        <v>263400333.4329881</v>
       </c>
       <c r="E36">
-        <v>435.7821304247763</v>
+        <v>313.8274425369821</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1741,10 +1741,10 @@
         <v>161</v>
       </c>
       <c r="D37">
-        <v>23022250.45004267</v>
+        <v>24466175.03223066</v>
       </c>
       <c r="E37">
-        <v>310.5254972776069</v>
+        <v>329.8300189801089</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1758,10 +1758,10 @@
         <v>162</v>
       </c>
       <c r="D38">
-        <v>9717.311850489141</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1775,10 +1775,10 @@
         <v>163</v>
       </c>
       <c r="D39">
-        <v>34984121.831848</v>
+        <v>20802989.59482666</v>
       </c>
       <c r="E39">
-        <v>433.0555897323141</v>
+        <v>257.5115796835674</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1792,10 +1792,10 @@
         <v>164</v>
       </c>
       <c r="D40">
-        <v>30042.3573120117</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1809,10 +1809,10 @@
         <v>165</v>
       </c>
       <c r="D41">
-        <v>22164.34588349332</v>
+        <v>148192.0758398276</v>
       </c>
       <c r="E41">
-        <v>48.41569876358187</v>
+        <v>323.7418508804796</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1826,10 +1826,10 @@
         <v>166</v>
       </c>
       <c r="D42">
-        <v>521790.8025072789</v>
+        <v>1567466.382832309</v>
       </c>
       <c r="E42">
-        <v>74.4354778028593</v>
+        <v>223.3299347880612</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1843,10 +1843,10 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>2544.913354181823</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1860,10 +1860,10 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>59365.7442316009</v>
+        <v>31574.43948964851</v>
       </c>
       <c r="E44">
-        <v>379.9574350469873</v>
+        <v>202.3626312880044</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1877,10 +1877,10 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>20120935.47042618</v>
+        <v>28821660.3167346</v>
       </c>
       <c r="E45">
-        <v>183.0853052114452</v>
+        <v>262.294315441116</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1894,10 +1894,10 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>106418812.8709664</v>
+        <v>87029113.41318199</v>
       </c>
       <c r="E46">
-        <v>461.4156262167713</v>
+        <v>377.2041081733192</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1911,10 +1911,10 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>13729.06715302485</v>
+        <v>8517.190611081533</v>
       </c>
       <c r="E47">
-        <v>431.9271137026239</v>
+        <v>267.9241982507289</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1928,10 +1928,10 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>114011499.2435613</v>
+        <v>84726744.35522203</v>
       </c>
       <c r="E48">
-        <v>400.9292738330093</v>
+        <v>297.9516960171826</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1945,10 +1945,10 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>126218.2005334559</v>
+        <v>324664.2027692106</v>
       </c>
       <c r="E49">
-        <v>87.46362828488003</v>
+        <v>225.0425923574965</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1962,10 +1962,10 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>7648.995264492531</v>
+        <v>12095.9298296391</v>
       </c>
       <c r="E50">
-        <v>173.9029535864979</v>
+        <v>275.0105485232068</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1979,10 +1979,10 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>13425888.41150411</v>
+        <v>11264320.96772566</v>
       </c>
       <c r="E51">
-        <v>364.3023052306502</v>
+        <v>305.715466057501</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1996,10 +1996,10 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>153817492.5234593</v>
+        <v>144718308.6881278</v>
       </c>
       <c r="E52">
-        <v>438.313000382776</v>
+        <v>412.3352219962205</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2013,10 +2013,10 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>7664.674359853958</v>
+        <v>1135.243015366067</v>
       </c>
       <c r="E53">
-        <v>170.815734989648</v>
+        <v>25.29606625258799</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2030,10 +2030,10 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>7769.420983255085</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2047,10 +2047,10 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>103877.6652181572</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2064,10 +2064,10 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>54181356.06950395</v>
+        <v>56013375.49984761</v>
       </c>
       <c r="E56">
-        <v>354.5190080255834</v>
+        <v>366.5116792226561</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2081,10 +2081,10 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>241559.3333318859</v>
+        <v>306893.8719514192</v>
       </c>
       <c r="E57">
-        <v>278.3208315921437</v>
+        <v>353.5781445883828</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2098,10 +2098,10 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>137306331.9787981</v>
+        <v>278284194.182278</v>
       </c>
       <c r="E58">
-        <v>137.0938483428955</v>
+        <v>276.7522586338828</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2115,10 +2115,10 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>1050710.039580401</v>
+        <v>34376.47852960275</v>
       </c>
       <c r="E59">
-        <v>367.1362121861907</v>
+        <v>12.01115033154092</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2132,10 +2132,10 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>25148.40488721704</v>
+        <v>87869.07845377357</v>
       </c>
       <c r="E60">
-        <v>136.6929292929293</v>
+        <v>477.6085858585859</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2149,10 +2149,10 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>170718751.1954653</v>
+        <v>51921764.29955749</v>
       </c>
       <c r="E61">
-        <v>380.445281258973</v>
+        <v>115.7224617847019</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2166,10 +2166,10 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>18685.31032422242</v>
+        <v>21807.93624143419</v>
       </c>
       <c r="E62">
-        <v>92.93965150871229</v>
+        <v>108.320016999575</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2183,10 +2183,10 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>2098060.839462302</v>
+        <v>450019.3065168248</v>
       </c>
       <c r="E63">
-        <v>241</v>
+        <v>52.00459117930505</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2200,10 +2200,10 @@
         <v>188</v>
       </c>
       <c r="D64">
-        <v>33530551.85235611</v>
+        <v>73792725.30313666</v>
       </c>
       <c r="E64">
-        <v>192.3981965672982</v>
+        <v>423.418456984419</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2217,10 +2217,10 @@
         <v>189</v>
       </c>
       <c r="D65">
-        <v>4862693.889930945</v>
+        <v>4174001.481142899</v>
       </c>
       <c r="E65">
-        <v>273.246745037211</v>
+        <v>234.5491179329725</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2234,10 +2234,10 @@
         <v>190</v>
       </c>
       <c r="D66">
-        <v>40478060.18911968</v>
+        <v>61720036.36593545</v>
       </c>
       <c r="E66">
-        <v>135.9266071658768</v>
+        <v>206.8054967203792</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2251,10 +2251,10 @@
         <v>191</v>
       </c>
       <c r="D67">
-        <v>9585.444403867707</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2268,10 +2268,10 @@
         <v>192</v>
       </c>
       <c r="D68">
-        <v>282128771.9896801</v>
+        <v>326362942.4172447</v>
       </c>
       <c r="E68">
-        <v>247.9013718901912</v>
+        <v>287.488153097667</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2285,10 +2285,10 @@
         <v>193</v>
       </c>
       <c r="D69">
-        <v>2646.127427402439</v>
+        <v>2601.413297325453</v>
       </c>
       <c r="E69">
-        <v>244.2905982905983</v>
+        <v>240.1623931623932</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2302,10 +2302,10 @@
         <v>194</v>
       </c>
       <c r="D70">
-        <v>10538968.51717537</v>
+        <v>9099615.985579163</v>
       </c>
       <c r="E70">
-        <v>373.0734396652809</v>
+        <v>322.1734856358597</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2319,10 +2319,10 @@
         <v>195</v>
       </c>
       <c r="D71">
-        <v>73521.0435959296</v>
+        <v>23452.62604757635</v>
       </c>
       <c r="E71">
-        <v>211.0558468799161</v>
+        <v>67.31489250131096</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2336,10 +2336,10 @@
         <v>196</v>
       </c>
       <c r="D72">
-        <v>843.0927215445997</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2353,10 +2353,10 @@
         <v>197</v>
       </c>
       <c r="D73">
-        <v>91217534.58701885</v>
+        <v>99293572.20351627</v>
       </c>
       <c r="E73">
-        <v>327.5132802127086</v>
+        <v>356.5342051491622</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2370,10 +2370,10 @@
         <v>198</v>
       </c>
       <c r="D74">
-        <v>19252.17558387171</v>
+        <v>33873.07144133836</v>
       </c>
       <c r="E74">
-        <v>201.8383641674781</v>
+        <v>355.1518987341772</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2387,10 +2387,10 @@
         <v>199</v>
       </c>
       <c r="D75">
-        <v>1930299.116653444</v>
+        <v>2146002.383867309</v>
       </c>
       <c r="E75">
-        <v>435.0182656714607</v>
+        <v>483.6134474179258</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2404,10 +2404,10 @@
         <v>200</v>
       </c>
       <c r="D76">
-        <v>57882.69667401874</v>
+        <v>130173.7574849823</v>
       </c>
       <c r="E76">
-        <v>81.24553163731245</v>
+        <v>182.8253098499674</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2421,10 +2421,10 @@
         <v>201</v>
       </c>
       <c r="D77">
-        <v>789.1675907417467</v>
+        <v>445.2234328290899</v>
       </c>
       <c r="E77">
-        <v>615.5714285714286</v>
+        <v>347.2857142857143</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2438,10 +2438,10 @@
         <v>202</v>
       </c>
       <c r="D78">
-        <v>6520452.60495201</v>
+        <v>7372808.689267959</v>
       </c>
       <c r="E78">
-        <v>342.0874863818368</v>
+        <v>386.9754849480977</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2455,10 +2455,10 @@
         <v>203</v>
       </c>
       <c r="D79">
-        <v>30325094.5870224</v>
+        <v>45738895.44112396</v>
       </c>
       <c r="E79">
-        <v>200.1456950199672</v>
+        <v>301.8873198063905</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2472,10 +2472,10 @@
         <v>204</v>
       </c>
       <c r="D80">
-        <v>91488441.92881891</v>
+        <v>50752470.86391602</v>
       </c>
       <c r="E80">
-        <v>417.7578336479394</v>
+        <v>231.7600826647154</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2489,10 +2489,10 @@
         <v>205</v>
       </c>
       <c r="D81">
-        <v>1621419.458254812</v>
+        <v>1522407.985137689</v>
       </c>
       <c r="E81">
-        <v>474.3326303988041</v>
+        <v>445.3670652928301</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2506,10 +2506,10 @@
         <v>206</v>
       </c>
       <c r="D82">
-        <v>14027903.3536755</v>
+        <v>13446322.7357614</v>
       </c>
       <c r="E82">
-        <v>230.2173967799251</v>
+        <v>220.6733631437836</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2523,10 +2523,10 @@
         <v>207</v>
       </c>
       <c r="D83">
-        <v>83957725.30838555</v>
+        <v>69769116.58824642</v>
       </c>
       <c r="E83">
-        <v>314.2382684969823</v>
+        <v>261.137536944166</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2540,10 +2540,10 @@
         <v>208</v>
       </c>
       <c r="D84">
-        <v>6927997.734519616</v>
+        <v>9764551.217305267</v>
       </c>
       <c r="E84">
-        <v>271.0276332163222</v>
+        <v>381.9894355602607</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2557,10 +2557,10 @@
         <v>209</v>
       </c>
       <c r="D85">
-        <v>83991.94632267652</v>
+        <v>58031.75950848428</v>
       </c>
       <c r="E85">
-        <v>437.3916827852998</v>
+        <v>302.2151837524178</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2574,10 +2574,10 @@
         <v>210</v>
       </c>
       <c r="D86">
-        <v>6552127.467820267</v>
+        <v>6527858.223410419</v>
       </c>
       <c r="E86">
-        <v>263.1795902964561</v>
+        <v>262.1483760215766</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2591,10 +2591,10 @@
         <v>211</v>
       </c>
       <c r="D87">
-        <v>21029199.13406987</v>
+        <v>10164042.72057729</v>
       </c>
       <c r="E87">
-        <v>331.0276148982867</v>
+        <v>159.9588590725945</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2608,10 +2608,10 @@
         <v>212</v>
       </c>
       <c r="D88">
-        <v>12477.80751974038</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2625,10 +2625,10 @@
         <v>213</v>
       </c>
       <c r="D89">
-        <v>953688.1313900381</v>
+        <v>2475053.746794199</v>
       </c>
       <c r="E89">
-        <v>92.95912340947926</v>
+        <v>241.3698219943927</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2642,10 +2642,10 @@
         <v>214</v>
       </c>
       <c r="D90">
-        <v>51258.09043536595</v>
+        <v>103572.1453726541</v>
       </c>
       <c r="E90">
-        <v>73.16341463414633</v>
+        <v>147.7388960205392</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2659,10 +2659,10 @@
         <v>215</v>
       </c>
       <c r="D91">
-        <v>96257246.27289729</v>
+        <v>36064196.67878925</v>
       </c>
       <c r="E91">
-        <v>522.8821785043402</v>
+        <v>195.6487467267885</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2676,10 +2676,10 @@
         <v>216</v>
       </c>
       <c r="D92">
-        <v>433224.0948657403</v>
+        <v>605448.2603005664</v>
       </c>
       <c r="E92">
-        <v>275.7340956582308</v>
+        <v>385.3663803111214</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2693,10 +2693,10 @@
         <v>217</v>
       </c>
       <c r="D93">
-        <v>18152909.4015653</v>
+        <v>19836770.79522387</v>
       </c>
       <c r="E93">
-        <v>303.3355286414706</v>
+        <v>331.2611422774849</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2710,10 +2710,10 @@
         <v>218</v>
       </c>
       <c r="D94">
-        <v>67516564.7815174</v>
+        <v>32156708.96918496</v>
       </c>
       <c r="E94">
-        <v>447.6828744307903</v>
+        <v>213.1989875865511</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2727,10 +2727,10 @@
         <v>219</v>
       </c>
       <c r="D95">
-        <v>10740238.95015352</v>
+        <v>10393359.76716336</v>
       </c>
       <c r="E95">
-        <v>288.7920612813371</v>
+        <v>279.47248557501</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2744,10 +2744,10 @@
         <v>220</v>
       </c>
       <c r="D96">
-        <v>8426420.804826211</v>
+        <v>4693613.059446774</v>
       </c>
       <c r="E96">
-        <v>463.0812147406261</v>
+        <v>257.9227696335623</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2761,10 +2761,10 @@
         <v>221</v>
       </c>
       <c r="D97">
-        <v>2637547.577622042</v>
+        <v>4906757.574190899</v>
       </c>
       <c r="E97">
-        <v>145.608108037998</v>
+        <v>270.9957975999627</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2778,10 +2778,10 @@
         <v>222</v>
       </c>
       <c r="D98">
-        <v>26758914.74620431</v>
+        <v>15796336.75187115</v>
       </c>
       <c r="E98">
-        <v>431.2112535135306</v>
+        <v>254.5429383105908</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2795,10 +2795,10 @@
         <v>223</v>
       </c>
       <c r="D99">
-        <v>35660.71203772544</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2812,10 +2812,10 @@
         <v>224</v>
       </c>
       <c r="D100">
-        <v>11339.517758725</v>
+        <v>5910.57930538117</v>
       </c>
       <c r="E100">
-        <v>332.1941489361702</v>
+        <v>173.1489361702128</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2829,10 +2829,10 @@
         <v>225</v>
       </c>
       <c r="D101">
-        <v>407.7218226857769</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>322.1428571428572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2846,10 +2846,10 @@
         <v>226</v>
       </c>
       <c r="D102">
-        <v>45685746.09212071</v>
+        <v>61007188.04315528</v>
       </c>
       <c r="E102">
-        <v>165.5318633616545</v>
+        <v>221.2492930179761</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2863,10 +2863,10 @@
         <v>227</v>
       </c>
       <c r="D103">
-        <v>44178.05005529206</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2880,10 +2880,10 @@
         <v>228</v>
       </c>
       <c r="D104">
-        <v>279742034.3490517</v>
+        <v>294343675.0922319</v>
       </c>
       <c r="E104">
-        <v>281.5046971858762</v>
+        <v>296.3429165408934</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2897,10 +2897,10 @@
         <v>229</v>
       </c>
       <c r="D105">
-        <v>7835.932046352811</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2914,10 +2914,10 @@
         <v>230</v>
       </c>
       <c r="D106">
-        <v>6235351.404463407</v>
+        <v>8746414.675541267</v>
       </c>
       <c r="E106">
-        <v>186.2629375336208</v>
+        <v>261.2139009091849</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="D107">
-        <v>1019711.950635223</v>
+        <v>1231330.789903427</v>
       </c>
       <c r="E107">
-        <v>187.9517011201007</v>
+        <v>226.9467384276653</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="D108">
-        <v>122255949.4270849</v>
+        <v>105127153.1329319</v>
       </c>
       <c r="E108">
-        <v>433.6650511187314</v>
+        <v>372.5127949144842</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2965,10 +2965,10 @@
         <v>233</v>
       </c>
       <c r="D109">
-        <v>2687670.261565267</v>
+        <v>3078477.287761136</v>
       </c>
       <c r="E109">
-        <v>472.2343418961864</v>
+        <v>540.8977257680085</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2982,10 +2982,10 @@
         <v>234</v>
       </c>
       <c r="D110">
-        <v>127043182.8953261</v>
+        <v>174007630.7557828</v>
       </c>
       <c r="E110">
-        <v>281.8046031361315</v>
+        <v>385.9959003534113</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2999,10 +2999,10 @@
         <v>235</v>
       </c>
       <c r="D111">
-        <v>2139.604755978787</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>364.0153846153846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3016,10 +3016,10 @@
         <v>236</v>
       </c>
       <c r="D112">
-        <v>59662.17231111302</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>155.2409579667644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3033,10 +3033,10 @@
         <v>237</v>
       </c>
       <c r="D113">
-        <v>5506052.115480435</v>
+        <v>5668027.560190376</v>
       </c>
       <c r="E113">
-        <v>362.01897951003</v>
+        <v>372.6835702625295</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3050,10 +3050,10 @@
         <v>238</v>
       </c>
       <c r="D114">
-        <v>6643.016602840995</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3067,10 +3067,10 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <v>55767.88153872904</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="D116">
-        <v>14526.00496702551</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>307.0558882235529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="D117">
-        <v>101768961.0955318</v>
+        <v>61541751.6394759</v>
       </c>
       <c r="E117">
-        <v>406.2545337996952</v>
+        <v>245.4015496664505</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3118,10 +3118,10 @@
         <v>242</v>
       </c>
       <c r="D118">
-        <v>138584.1725773269</v>
+        <v>277115.6819690968</v>
       </c>
       <c r="E118">
-        <v>132.2291983878191</v>
+        <v>264.3623824451411</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3135,10 +3135,10 @@
         <v>243</v>
       </c>
       <c r="D119">
-        <v>251255.7814318032</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3152,10 +3152,10 @@
         <v>244</v>
       </c>
       <c r="D120">
-        <v>3857717.387569281</v>
+        <v>1998417.06703571</v>
       </c>
       <c r="E120">
-        <v>471.0830290721555</v>
+        <v>244.0729770434941</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3169,10 +3169,10 @@
         <v>245</v>
       </c>
       <c r="D121">
-        <v>22704.59231318686</v>
+        <v>22762.61963823107</v>
       </c>
       <c r="E121">
-        <v>232.1612903225806</v>
+        <v>232.8018433179724</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3186,10 +3186,10 @@
         <v>246</v>
       </c>
       <c r="D122">
-        <v>76930.57559339452</v>
+        <v>54205.45616446856</v>
       </c>
       <c r="E122">
-        <v>295.7028531663187</v>
+        <v>208.3521224773834</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3203,10 +3203,10 @@
         <v>247</v>
       </c>
       <c r="D123">
-        <v>399530.0989065204</v>
+        <v>599180.4782220812</v>
       </c>
       <c r="E123">
-        <v>151.2446581866032</v>
+        <v>226.4373394322953</v>
       </c>
     </row>
   </sheetData>

--- a/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_stats.xlsx
+++ b/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_stats.xlsx
@@ -2880,7 +2880,7 @@
         <v>228</v>
       </c>
       <c r="D104">
-        <v>294343675.0922319</v>
+        <v>294343675.0922318</v>
       </c>
       <c r="E104">
         <v>296.3429165408934</v>

--- a/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_stats.xlsx
+++ b/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_stats.xlsx
@@ -1146,10 +1146,10 @@
         <v>126</v>
       </c>
       <c r="D2">
-        <v>9887777.722584257</v>
+        <v>10716852.57120538</v>
       </c>
       <c r="E2">
-        <v>351.8886097180524</v>
+        <v>381.3754381845323</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>345.2908336473051</v>
+        <v>1261.723558794698</v>
       </c>
       <c r="E3">
-        <v>106.1666666666667</v>
+        <v>387.9166666666667</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>128</v>
       </c>
       <c r="D4">
-        <v>2320019.121670413</v>
+        <v>2733041.914800243</v>
       </c>
       <c r="E4">
-        <v>314.4135092348285</v>
+        <v>370.4960773966579</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>129</v>
       </c>
       <c r="D5">
-        <v>17888.26361671732</v>
+        <v>19611.6748548145</v>
       </c>
       <c r="E5">
-        <v>301.5878962536023</v>
+        <v>330.6368876080692</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>130</v>
       </c>
       <c r="D6">
-        <v>51145512.25110474</v>
+        <v>86792834.67002037</v>
       </c>
       <c r="E6">
-        <v>341.5389621683133</v>
+        <v>579.4139837643714</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>131</v>
       </c>
       <c r="D7">
-        <v>2132571.463899601</v>
+        <v>2592326.089218221</v>
       </c>
       <c r="E7">
-        <v>290.373522636218</v>
+        <v>353.0439953926282</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>132</v>
       </c>
       <c r="D8">
-        <v>16887856.49958404</v>
+        <v>21314602.86330723</v>
       </c>
       <c r="E8">
-        <v>345.78533566933</v>
+        <v>436.4678409885581</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>133</v>
       </c>
       <c r="D9">
-        <v>16851175.87730509</v>
+        <v>18851798.35111116</v>
       </c>
       <c r="E9">
-        <v>322.4184060902249</v>
+        <v>360.7196621557105</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>134</v>
       </c>
       <c r="D10">
-        <v>5137872.690437656</v>
+        <v>5361865.47738635</v>
       </c>
       <c r="E10">
-        <v>447.0649629806544</v>
+        <v>466.5552901839026</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>135</v>
       </c>
       <c r="D11">
-        <v>9150744.290654924</v>
+        <v>10231471.73428275</v>
       </c>
       <c r="E11">
-        <v>307.857877152403</v>
+        <v>344.347523032951</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1316,10 +1316,10 @@
         <v>136</v>
       </c>
       <c r="D12">
-        <v>23894.35072890129</v>
+        <v>43203.1749559256</v>
       </c>
       <c r="E12">
-        <v>175.1595131326073</v>
+        <v>315.7943625880845</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>14424958.42431058</v>
+        <v>19325115.6145052</v>
       </c>
       <c r="E13">
-        <v>185.5357109434534</v>
+        <v>248.4866755199444</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>138</v>
       </c>
       <c r="D14">
-        <v>2779634.428621654</v>
+        <v>5097152.488811482</v>
       </c>
       <c r="E14">
-        <v>134.2693490352822</v>
+        <v>246.3881815101832</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1367,10 +1367,10 @@
         <v>139</v>
       </c>
       <c r="D15">
-        <v>1357553.897056876</v>
+        <v>1569974.317699212</v>
       </c>
       <c r="E15">
-        <v>253.105725628584</v>
+        <v>292.7126069695633</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>65059133.85884734</v>
+        <v>75827692.5095299</v>
       </c>
       <c r="E16">
-        <v>330.0210924569592</v>
+        <v>384.6340069806938</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1401,10 +1401,10 @@
         <v>141</v>
       </c>
       <c r="D17">
-        <v>9371346.455718869</v>
+        <v>9820408.154717667</v>
       </c>
       <c r="E17">
-        <v>395.2856880989858</v>
+        <v>414.2269541134511</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>142</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>835436.1640821676</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1435,10 +1435,10 @@
         <v>143</v>
       </c>
       <c r="D19">
-        <v>34911771.16507363</v>
+        <v>37145956.5788497</v>
       </c>
       <c r="E19">
-        <v>275.0153950983465</v>
+        <v>292.6182554894002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1452,10 +1452,10 @@
         <v>144</v>
       </c>
       <c r="D20">
-        <v>221658.4775703541</v>
+        <v>355859.6441754814</v>
       </c>
       <c r="E20">
-        <v>317.2685512367491</v>
+        <v>509.353628703452</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1469,10 +1469,10 @@
         <v>145</v>
       </c>
       <c r="D21">
-        <v>21678960.12228134</v>
+        <v>25547858.44945315</v>
       </c>
       <c r="E21">
-        <v>412.2300334050049</v>
+        <v>485.8497310977539</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1486,10 +1486,10 @@
         <v>146</v>
       </c>
       <c r="D22">
-        <v>5862959.677131101</v>
+        <v>6507659.056911416</v>
       </c>
       <c r="E22">
-        <v>390.1076600473152</v>
+        <v>432.9772086410018</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>147</v>
       </c>
       <c r="D23">
-        <v>1192117762.126036</v>
+        <v>1399664242.702257</v>
       </c>
       <c r="E23">
-        <v>410.6855149448448</v>
+        <v>482.3028165282545</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1520,10 +1520,10 @@
         <v>148</v>
       </c>
       <c r="D24">
-        <v>61301433.95422214</v>
+        <v>78531704.83880663</v>
       </c>
       <c r="E24">
-        <v>151.7581608433057</v>
+        <v>194.3682185264466</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1537,10 +1537,10 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>3496439.434468775</v>
+        <v>3947410.206949712</v>
       </c>
       <c r="E25">
-        <v>357.943134150068</v>
+        <v>404.098813790038</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1554,10 +1554,10 @@
         <v>150</v>
       </c>
       <c r="D26">
-        <v>238866.7263035734</v>
+        <v>366546.7103780286</v>
       </c>
       <c r="E26">
-        <v>231.6071128299983</v>
+        <v>356.0294266016479</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1571,10 +1571,10 @@
         <v>151</v>
       </c>
       <c r="D27">
-        <v>18246203.81416432</v>
+        <v>19634431.37492048</v>
       </c>
       <c r="E27">
-        <v>336.4108129757108</v>
+        <v>362.0076061254757</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1588,10 +1588,10 @@
         <v>152</v>
       </c>
       <c r="D28">
-        <v>3084208.203015845</v>
+        <v>3460603.773449443</v>
       </c>
       <c r="E28">
-        <v>375.6033240570655</v>
+        <v>421.4238997723098</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>153</v>
       </c>
       <c r="D29">
-        <v>63713.25771625413</v>
+        <v>69614.57554940245</v>
       </c>
       <c r="E29">
-        <v>394.2124500285551</v>
+        <v>430.7315819531696</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1622,10 +1622,10 @@
         <v>154</v>
       </c>
       <c r="D30">
-        <v>562590.9273942907</v>
+        <v>1049385.07332115</v>
       </c>
       <c r="E30">
-        <v>162.7211008673831</v>
+        <v>302.8107304566036</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1639,10 +1639,10 @@
         <v>155</v>
       </c>
       <c r="D31">
-        <v>123310113.5217818</v>
+        <v>142115602.4327385</v>
       </c>
       <c r="E31">
-        <v>231.0381985293169</v>
+        <v>266.8223211051719</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1656,10 +1656,10 @@
         <v>156</v>
       </c>
       <c r="D32">
-        <v>663943.3157996824</v>
+        <v>887929.6794939399</v>
       </c>
       <c r="E32">
-        <v>341.5107188490843</v>
+        <v>456.7120817755904</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1673,10 +1673,10 @@
         <v>157</v>
       </c>
       <c r="D33">
-        <v>34945.65945721281</v>
+        <v>135306.7571897056</v>
       </c>
       <c r="E33">
-        <v>89.24037366142629</v>
+        <v>345.4160401002507</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1690,10 +1690,10 @@
         <v>158</v>
       </c>
       <c r="D34">
-        <v>226157598.3403767</v>
+        <v>244113232.5957108</v>
       </c>
       <c r="E34">
-        <v>433.0005252101792</v>
+        <v>467.365881563836</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1707,10 +1707,10 @@
         <v>159</v>
       </c>
       <c r="D35">
-        <v>188900.4328276409</v>
+        <v>251722.8560140113</v>
       </c>
       <c r="E35">
-        <v>279.6693647962683</v>
+        <v>372.6763616408286</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1724,10 +1724,10 @@
         <v>160</v>
       </c>
       <c r="D36">
-        <v>263400333.4329881</v>
+        <v>343185904.22323</v>
       </c>
       <c r="E36">
-        <v>313.8274425369821</v>
+        <v>408.9466965875753</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1741,10 +1741,10 @@
         <v>161</v>
       </c>
       <c r="D37">
-        <v>24466175.03223066</v>
+        <v>26965373.80103025</v>
       </c>
       <c r="E37">
-        <v>329.8300189801089</v>
+        <v>363.5372131018832</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1758,10 +1758,10 @@
         <v>162</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>21157.8908271734</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1775,10 +1775,10 @@
         <v>163</v>
       </c>
       <c r="D39">
-        <v>20802989.59482666</v>
+        <v>23932212.581799</v>
       </c>
       <c r="E39">
-        <v>257.5115796835674</v>
+        <v>296.2477205531489</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1792,10 +1792,10 @@
         <v>164</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>51732.68997711559</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1809,10 +1809,10 @@
         <v>165</v>
       </c>
       <c r="D41">
-        <v>148192.0758398276</v>
+        <v>171820.3545710901</v>
       </c>
       <c r="E41">
-        <v>323.7418508804796</v>
+        <v>375.3342075683777</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1826,10 +1826,10 @@
         <v>166</v>
       </c>
       <c r="D42">
-        <v>1567466.382832309</v>
+        <v>2330633.167391757</v>
       </c>
       <c r="E42">
-        <v>223.3299347880612</v>
+        <v>331.3860295961876</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1843,10 +1843,10 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>4154.960578256037</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1860,10 +1860,10 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>31574.43948964851</v>
+        <v>48609.0384374563</v>
       </c>
       <c r="E44">
-        <v>202.3626312880044</v>
+        <v>311.1652846876727</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1877,10 +1877,10 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>28821660.3167346</v>
+        <v>32591633.6136471</v>
       </c>
       <c r="E45">
-        <v>262.294315441116</v>
+        <v>296.5876373776962</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1894,10 +1894,10 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>87029113.41318199</v>
+        <v>116329421.5295288</v>
       </c>
       <c r="E46">
-        <v>377.2041081733192</v>
+        <v>504.2852902270414</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1911,10 +1911,10 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>8517.190611081533</v>
+        <v>11170.63807162057</v>
       </c>
       <c r="E47">
-        <v>267.9241982507289</v>
+        <v>351.4956268221574</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1928,10 +1928,10 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>84726744.35522203</v>
+        <v>94859610.0687795</v>
       </c>
       <c r="E48">
-        <v>297.9516960171826</v>
+        <v>333.5883493082087</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1945,10 +1945,10 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>324664.2027692106</v>
+        <v>455910.0744417097</v>
       </c>
       <c r="E49">
-        <v>225.0425923574965</v>
+        <v>315.9772121366002</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1962,10 +1962,10 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>12095.9298296391</v>
+        <v>18191.53047609485</v>
       </c>
       <c r="E50">
-        <v>275.0105485232068</v>
+        <v>413.5928270042194</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1979,10 +1979,10 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>11264320.96772566</v>
+        <v>12296971.02478728</v>
       </c>
       <c r="E51">
-        <v>305.715466057501</v>
+        <v>333.7365341663572</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1996,10 +1996,10 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>144718308.6881278</v>
+        <v>164434397.6887976</v>
       </c>
       <c r="E52">
-        <v>412.3352219962205</v>
+        <v>468.4640679456191</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2013,10 +2013,10 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>1135.243015366067</v>
+        <v>14536.74492393509</v>
       </c>
       <c r="E53">
-        <v>25.29606625258799</v>
+        <v>323.9627329192547</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2030,10 +2030,10 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>13378.87845664257</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2047,10 +2047,10 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>180099.5883977142</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2064,10 +2064,10 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>56013375.49984761</v>
+        <v>59170792.41316127</v>
       </c>
       <c r="E56">
-        <v>366.5116792226561</v>
+        <v>387.1725641892931</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2081,10 +2081,10 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>306893.8719514192</v>
+        <v>381929.3965123239</v>
       </c>
       <c r="E57">
-        <v>353.5781445883828</v>
+        <v>440.0550564145424</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2098,10 +2098,10 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>278284194.182278</v>
+        <v>309799501.8323431</v>
       </c>
       <c r="E58">
-        <v>276.7522586338828</v>
+        <v>308.3011371732759</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2115,10 +2115,10 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>34376.47852960275</v>
+        <v>1137988.342734369</v>
       </c>
       <c r="E59">
-        <v>12.01115033154092</v>
+        <v>397.6330287335467</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2132,10 +2132,10 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>87869.07845377357</v>
+        <v>97174.08686681243</v>
       </c>
       <c r="E60">
-        <v>477.6085858585859</v>
+        <v>528.1853535353536</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2149,10 +2149,10 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>51921764.29955749</v>
+        <v>57826866.59192485</v>
       </c>
       <c r="E61">
-        <v>115.7224617847019</v>
+        <v>128.878884150048</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2166,10 +2166,10 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>21807.93624143419</v>
+        <v>56163.25866337197</v>
       </c>
       <c r="E62">
-        <v>108.320016999575</v>
+        <v>278.1661708457289</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2183,10 +2183,10 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>450019.3065168248</v>
+        <v>3713448.622766814</v>
       </c>
       <c r="E63">
-        <v>52.00459117930505</v>
+        <v>426.6257755736267</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2200,10 +2200,10 @@
         <v>188</v>
       </c>
       <c r="D64">
-        <v>73792725.30313666</v>
+        <v>77856727.90177715</v>
       </c>
       <c r="E64">
-        <v>423.418456984419</v>
+        <v>446.7435140943928</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2217,10 +2217,10 @@
         <v>189</v>
       </c>
       <c r="D65">
-        <v>4174001.481142899</v>
+        <v>4669017.677378537</v>
       </c>
       <c r="E65">
-        <v>234.5491179329725</v>
+        <v>262.3647470664167</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2234,10 +2234,10 @@
         <v>190</v>
       </c>
       <c r="D66">
-        <v>61720036.36593545</v>
+        <v>67399023.20832901</v>
       </c>
       <c r="E66">
-        <v>206.8054967203792</v>
+        <v>225.8826036777251</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2251,10 +2251,10 @@
         <v>191</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>10500.32413005031</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2268,10 +2268,10 @@
         <v>192</v>
       </c>
       <c r="D68">
-        <v>326362942.4172447</v>
+        <v>366865931.4913002</v>
       </c>
       <c r="E68">
-        <v>287.488153097667</v>
+        <v>322.9791100192699</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2285,10 +2285,10 @@
         <v>193</v>
       </c>
       <c r="D69">
-        <v>2601.413297325453</v>
+        <v>3662.950203168838</v>
       </c>
       <c r="E69">
-        <v>240.1623931623932</v>
+        <v>338.1623931623932</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2302,10 +2302,10 @@
         <v>194</v>
       </c>
       <c r="D70">
-        <v>9099615.985579163</v>
+        <v>9926399.73520693</v>
       </c>
       <c r="E70">
-        <v>322.1734856358597</v>
+        <v>351.4038448726149</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2319,10 +2319,10 @@
         <v>195</v>
       </c>
       <c r="D71">
-        <v>23452.62604757635</v>
+        <v>100142.5593934713</v>
       </c>
       <c r="E71">
-        <v>67.31489250131096</v>
+        <v>287.500524383849</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2336,10 +2336,10 @@
         <v>196</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1451.798669879705</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2353,10 +2353,10 @@
         <v>197</v>
       </c>
       <c r="D73">
-        <v>99293572.20351627</v>
+        <v>125634772.6720068</v>
       </c>
       <c r="E73">
-        <v>356.5342051491622</v>
+        <v>450.9912220400287</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2370,10 +2370,10 @@
         <v>198</v>
       </c>
       <c r="D74">
-        <v>33873.07144133836</v>
+        <v>38865.51353639762</v>
       </c>
       <c r="E74">
-        <v>355.1518987341772</v>
+        <v>407.506329113924</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2387,10 +2387,10 @@
         <v>199</v>
       </c>
       <c r="D75">
-        <v>2146002.383867309</v>
+        <v>2373733.193135263</v>
       </c>
       <c r="E75">
-        <v>483.6134474179258</v>
+        <v>534.9420069988065</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2404,10 +2404,10 @@
         <v>200</v>
       </c>
       <c r="D76">
-        <v>130173.7574849823</v>
+        <v>222848.2604029067</v>
       </c>
       <c r="E76">
-        <v>182.8253098499674</v>
+        <v>312.7843444227006</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2421,10 +2421,10 @@
         <v>201</v>
       </c>
       <c r="D77">
-        <v>445.2234328290899</v>
+        <v>566.3728617339877</v>
       </c>
       <c r="E77">
-        <v>347.2857142857143</v>
+        <v>441.7857142857143</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2438,10 +2438,10 @@
         <v>202</v>
       </c>
       <c r="D78">
-        <v>7372808.689267959</v>
+        <v>8063047.310254373</v>
       </c>
       <c r="E78">
-        <v>386.9754849480977</v>
+        <v>423.2307282356991</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2455,10 +2455,10 @@
         <v>203</v>
       </c>
       <c r="D79">
-        <v>45738895.44112396</v>
+        <v>57003998.76287887</v>
       </c>
       <c r="E79">
-        <v>301.8873198063905</v>
+        <v>376.2347953421486</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2472,10 +2472,10 @@
         <v>204</v>
       </c>
       <c r="D80">
-        <v>50752470.86391602</v>
+        <v>54264651.8121212</v>
       </c>
       <c r="E80">
-        <v>231.7600826647154</v>
+        <v>247.802168111975</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2489,10 +2489,10 @@
         <v>205</v>
       </c>
       <c r="D81">
-        <v>1522407.985137689</v>
+        <v>1710028.792071431</v>
       </c>
       <c r="E81">
-        <v>445.3670652928301</v>
+        <v>500.2477977684053</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2506,10 +2506,10 @@
         <v>206</v>
       </c>
       <c r="D82">
-        <v>13446322.7357614</v>
+        <v>14547886.74844078</v>
       </c>
       <c r="E82">
-        <v>220.6733631437836</v>
+        <v>238.7503918501243</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2523,10 +2523,10 @@
         <v>207</v>
       </c>
       <c r="D83">
-        <v>69769116.58824642</v>
+        <v>75900052.9111176</v>
       </c>
       <c r="E83">
-        <v>261.137536944166</v>
+        <v>284.0820584469155</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2540,10 +2540,10 @@
         <v>208</v>
       </c>
       <c r="D84">
-        <v>9764551.217305267</v>
+        <v>10397270.40253981</v>
       </c>
       <c r="E84">
-        <v>381.9894355602607</v>
+        <v>406.7423264798202</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2557,10 +2557,10 @@
         <v>209</v>
       </c>
       <c r="D85">
-        <v>58031.75950848428</v>
+        <v>71957.76215994389</v>
       </c>
       <c r="E85">
-        <v>302.2151837524178</v>
+        <v>374.7200193423598</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2574,10 +2574,10 @@
         <v>210</v>
       </c>
       <c r="D86">
-        <v>6527858.223410419</v>
+        <v>7156344.959657998</v>
       </c>
       <c r="E86">
-        <v>262.1483760215766</v>
+        <v>287.3831397779447</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2591,10 +2591,10 @@
         <v>211</v>
       </c>
       <c r="D87">
-        <v>10164042.72057729</v>
+        <v>16665840.52874894</v>
       </c>
       <c r="E87">
-        <v>159.9588590725945</v>
+        <v>262.3230850781871</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2608,10 +2608,10 @@
         <v>212</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>21486.68099872306</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2625,10 +2625,10 @@
         <v>213</v>
       </c>
       <c r="D89">
-        <v>2475053.746794199</v>
+        <v>3687694.885786559</v>
       </c>
       <c r="E89">
-        <v>241.3698219943927</v>
+        <v>359.6384976525821</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2642,10 +2642,10 @@
         <v>214</v>
       </c>
       <c r="D90">
-        <v>103572.1453726541</v>
+        <v>236395.8699767577</v>
       </c>
       <c r="E90">
-        <v>147.7388960205392</v>
+        <v>337.5842105263158</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2659,10 +2659,10 @@
         <v>215</v>
       </c>
       <c r="D91">
-        <v>36064196.67878925</v>
+        <v>45727140.40650222</v>
       </c>
       <c r="E91">
-        <v>195.6487467267885</v>
+        <v>248.5206022003241</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2676,10 +2676,10 @@
         <v>216</v>
       </c>
       <c r="D92">
-        <v>605448.2603005664</v>
+        <v>644542.8899300435</v>
       </c>
       <c r="E92">
-        <v>385.3663803111214</v>
+        <v>410.2595774320873</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2693,10 +2693,10 @@
         <v>217</v>
       </c>
       <c r="D93">
-        <v>19836770.79522387</v>
+        <v>21903050.42345865</v>
       </c>
       <c r="E93">
-        <v>331.2611422774849</v>
+        <v>365.8324777523324</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2710,10 +2710,10 @@
         <v>218</v>
       </c>
       <c r="D94">
-        <v>32156708.96918496</v>
+        <v>41359758.93624693</v>
       </c>
       <c r="E94">
-        <v>213.1989875865511</v>
+        <v>274.2328139230241</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2727,10 +2727,10 @@
         <v>219</v>
       </c>
       <c r="D95">
-        <v>10393359.76716336</v>
+        <v>10821705.338766</v>
       </c>
       <c r="E95">
-        <v>279.47248557501</v>
+        <v>290.9911510147234</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2744,10 +2744,10 @@
         <v>220</v>
       </c>
       <c r="D96">
-        <v>4693613.059446774</v>
+        <v>5128190.462614103</v>
       </c>
       <c r="E96">
-        <v>257.9227696335623</v>
+        <v>281.8101266480348</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2761,10 +2761,10 @@
         <v>221</v>
       </c>
       <c r="D97">
-        <v>4906757.574190899</v>
+        <v>6354818.355589933</v>
       </c>
       <c r="E97">
-        <v>270.9957975999627</v>
+        <v>350.9657270930287</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2778,10 +2778,10 @@
         <v>222</v>
       </c>
       <c r="D98">
-        <v>15796336.75187115</v>
+        <v>17446621.07372835</v>
       </c>
       <c r="E98">
-        <v>254.5429383105908</v>
+        <v>281.1233322466615</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2795,10 +2795,10 @@
         <v>223</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>61407.45018944422</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2812,10 +2812,10 @@
         <v>224</v>
       </c>
       <c r="D100">
-        <v>5910.57930538117</v>
+        <v>12516.37932929045</v>
       </c>
       <c r="E100">
-        <v>173.1489361702128</v>
+        <v>366.6728723404256</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2829,10 +2829,10 @@
         <v>225</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>558.15845448863</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2846,10 +2846,10 @@
         <v>226</v>
       </c>
       <c r="D102">
-        <v>61007188.04315528</v>
+        <v>68106470.24569437</v>
       </c>
       <c r="E102">
-        <v>221.2492930179761</v>
+        <v>247.0604664246758</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2863,10 +2863,10 @@
         <v>227</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>39407.20231713956</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2880,10 +2880,10 @@
         <v>228</v>
       </c>
       <c r="D104">
-        <v>294343675.0922318</v>
+        <v>312836774.1942145</v>
       </c>
       <c r="E104">
-        <v>296.3429165408934</v>
+        <v>315.0278238359616</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2897,10 +2897,10 @@
         <v>229</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>13493.40995533783</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2914,10 +2914,10 @@
         <v>230</v>
       </c>
       <c r="D106">
-        <v>8746414.675541267</v>
+        <v>10760166.6532018</v>
       </c>
       <c r="E106">
-        <v>261.2139009091849</v>
+        <v>321.4159302119135</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="D107">
-        <v>1231330.789903427</v>
+        <v>1950719.839926291</v>
       </c>
       <c r="E107">
-        <v>226.9467384276653</v>
+        <v>359.5554720673808</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="D108">
-        <v>105127153.1329319</v>
+        <v>123353927.6948879</v>
       </c>
       <c r="E108">
-        <v>372.5127949144842</v>
+        <v>437.1365676079824</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2965,10 +2965,10 @@
         <v>233</v>
       </c>
       <c r="D109">
-        <v>3078477.287761136</v>
+        <v>3249427.285034537</v>
       </c>
       <c r="E109">
-        <v>540.8977257680085</v>
+        <v>570.9334447828389</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2982,10 +2982,10 @@
         <v>234</v>
       </c>
       <c r="D110">
-        <v>174007630.7557828</v>
+        <v>192413264.0987372</v>
       </c>
       <c r="E110">
-        <v>385.9959003534113</v>
+        <v>426.8290634422293</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2999,10 +2999,10 @@
         <v>235</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>2592.105179637632</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3016,10 +3016,10 @@
         <v>236</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>133449.1215834816</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>347.4743401759531</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3033,10 +3033,10 @@
         <v>237</v>
       </c>
       <c r="D113">
-        <v>5668027.560190376</v>
+        <v>8766661.083376152</v>
       </c>
       <c r="E113">
-        <v>372.6835702625295</v>
+        <v>576.3926789168841</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3050,10 +3050,10 @@
         <v>238</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>11439.2194613237</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3067,10 +3067,10 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>96031.82920569522</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>19017.55692307391</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="D117">
-        <v>61541751.6394759</v>
+        <v>71025717.54186974</v>
       </c>
       <c r="E117">
-        <v>245.4015496664505</v>
+        <v>283.4580672876758</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3118,10 +3118,10 @@
         <v>242</v>
       </c>
       <c r="D118">
-        <v>277115.6819690968</v>
+        <v>340054.5565395231</v>
       </c>
       <c r="E118">
-        <v>264.3623824451411</v>
+        <v>324.3939991043439</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3135,10 +3135,10 @@
         <v>243</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>432660.3705153456</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3152,10 +3152,10 @@
         <v>244</v>
       </c>
       <c r="D120">
-        <v>1998417.06703571</v>
+        <v>2914395.721438039</v>
       </c>
       <c r="E120">
-        <v>244.0729770434941</v>
+        <v>355.8816576148967</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3169,10 +3169,10 @@
         <v>245</v>
       </c>
       <c r="D121">
-        <v>22762.61963823107</v>
+        <v>43944.01738138052</v>
       </c>
       <c r="E121">
-        <v>232.8018433179724</v>
+        <v>449.4405529953917</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3186,10 +3186,10 @@
         <v>246</v>
       </c>
       <c r="D122">
-        <v>54205.45616446856</v>
+        <v>107989.9588718489</v>
       </c>
       <c r="E122">
-        <v>208.3521224773834</v>
+        <v>415.0421016005567</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3203,10 +3203,10 @@
         <v>247</v>
       </c>
       <c r="D123">
-        <v>599180.4782220812</v>
+        <v>691714.036793157</v>
       </c>
       <c r="E123">
-        <v>226.4373394322953</v>
+        <v>261.4150949307601</v>
       </c>
     </row>
   </sheetData>

--- a/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_stats.xlsx
+++ b/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_stats.xlsx
@@ -1146,10 +1146,10 @@
         <v>126</v>
       </c>
       <c r="D2">
-        <v>10716852.57120538</v>
+        <v>6853930.831145396</v>
       </c>
       <c r="E2">
-        <v>381.3754381845323</v>
+        <v>244.026940172087</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>1261.723558794698</v>
+        <v>712.1139482197583</v>
       </c>
       <c r="E3">
-        <v>387.9166666666667</v>
+        <v>218.9444444444445</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>128</v>
       </c>
       <c r="D4">
-        <v>2733041.914800243</v>
+        <v>766751.7074379617</v>
       </c>
       <c r="E4">
-        <v>370.4960773966579</v>
+        <v>104.1036411609499</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>129</v>
       </c>
       <c r="D5">
-        <v>19611.6748548145</v>
+        <v>6963.261213370571</v>
       </c>
       <c r="E5">
-        <v>330.6368876080692</v>
+        <v>117.3991354466859</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>130</v>
       </c>
       <c r="D6">
-        <v>86792834.67002037</v>
+        <v>41675362.59190886</v>
       </c>
       <c r="E6">
-        <v>579.4139837643714</v>
+        <v>278.5226902583925</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>131</v>
       </c>
       <c r="D7">
-        <v>2592326.089218221</v>
+        <v>1170073.335096044</v>
       </c>
       <c r="E7">
-        <v>353.0439953926282</v>
+        <v>159.1043294270833</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>132</v>
       </c>
       <c r="D8">
-        <v>21314602.86330723</v>
+        <v>14718937.87799333</v>
       </c>
       <c r="E8">
-        <v>436.4678409885581</v>
+        <v>301.4387172848874</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>133</v>
       </c>
       <c r="D9">
-        <v>18851798.35111116</v>
+        <v>13506398.7918749</v>
       </c>
       <c r="E9">
-        <v>360.7196621557105</v>
+        <v>258.3992378538381</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>134</v>
       </c>
       <c r="D10">
-        <v>5361865.47738635</v>
+        <v>3610858.082015728</v>
       </c>
       <c r="E10">
-        <v>466.5552901839026</v>
+        <v>314.1937524192286</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>135</v>
       </c>
       <c r="D11">
-        <v>10231471.73428275</v>
+        <v>4605188.830661538</v>
       </c>
       <c r="E11">
-        <v>344.347523032951</v>
+        <v>155.0691702426475</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1316,10 +1316,10 @@
         <v>136</v>
       </c>
       <c r="D12">
-        <v>43203.1749559256</v>
+        <v>17494.73187025064</v>
       </c>
       <c r="E12">
-        <v>315.7943625880845</v>
+        <v>128.1985906470211</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>19325115.6145052</v>
+        <v>16919872.69527205</v>
       </c>
       <c r="E13">
-        <v>248.4866755199444</v>
+        <v>217.5401149292109</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>138</v>
       </c>
       <c r="D14">
-        <v>5097152.488811482</v>
+        <v>5231972.955339085</v>
       </c>
       <c r="E14">
-        <v>246.3881815101832</v>
+        <v>252.9874172838659</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1367,10 +1367,10 @@
         <v>139</v>
       </c>
       <c r="D15">
-        <v>1569974.317699212</v>
+        <v>1699796.995556672</v>
       </c>
       <c r="E15">
-        <v>292.7126069695633</v>
+        <v>316.9273577415086</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>75827692.5095299</v>
+        <v>53668407.95021657</v>
       </c>
       <c r="E16">
-        <v>384.6340069806938</v>
+        <v>272.2222671160318</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1401,10 +1401,10 @@
         <v>141</v>
       </c>
       <c r="D17">
-        <v>9820408.154717667</v>
+        <v>5702425.095037483</v>
       </c>
       <c r="E17">
-        <v>414.2269541134511</v>
+        <v>240.5277889577397</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>142</v>
       </c>
       <c r="D18">
-        <v>835436.1640821676</v>
+        <v>454716.1674698981</v>
       </c>
       <c r="E18">
-        <v>416</v>
+        <v>226.423787964535</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1435,10 +1435,10 @@
         <v>143</v>
       </c>
       <c r="D19">
-        <v>37145956.5788497</v>
+        <v>29957943.80592378</v>
       </c>
       <c r="E19">
-        <v>292.6182554894002</v>
+        <v>236.0268206297962</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1452,10 +1452,10 @@
         <v>144</v>
       </c>
       <c r="D20">
-        <v>355859.6441754814</v>
+        <v>194973.1111724755</v>
       </c>
       <c r="E20">
-        <v>509.353628703452</v>
+        <v>279.0720304430552</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1469,10 +1469,10 @@
         <v>145</v>
       </c>
       <c r="D21">
-        <v>25547858.44945315</v>
+        <v>16431015.94343374</v>
       </c>
       <c r="E21">
-        <v>485.8497310977539</v>
+        <v>312.4582312326965</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1486,10 +1486,10 @@
         <v>146</v>
       </c>
       <c r="D22">
-        <v>6507659.056911416</v>
+        <v>3940155.531458958</v>
       </c>
       <c r="E22">
-        <v>432.9772086410018</v>
+        <v>262.1428776256362</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>147</v>
       </c>
       <c r="D23">
-        <v>1399664242.702257</v>
+        <v>943041490.0110742</v>
       </c>
       <c r="E23">
-        <v>482.3028165282545</v>
+        <v>324.9536038909216</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1520,10 +1520,10 @@
         <v>148</v>
       </c>
       <c r="D24">
-        <v>78531704.83880663</v>
+        <v>76515654.63876989</v>
       </c>
       <c r="E24">
-        <v>194.3682185264466</v>
+        <v>189.9706210533645</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1537,10 +1537,10 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>3947410.206949712</v>
+        <v>2909918.741985708</v>
       </c>
       <c r="E25">
-        <v>404.098813790038</v>
+        <v>297.8846570547545</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1554,10 +1554,10 @@
         <v>150</v>
       </c>
       <c r="D26">
-        <v>366546.7103780286</v>
+        <v>276276.8469376942</v>
       </c>
       <c r="E26">
-        <v>356.0294266016479</v>
+        <v>268.4688078022533</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1571,10 +1571,10 @@
         <v>151</v>
       </c>
       <c r="D27">
-        <v>19634431.37492048</v>
+        <v>16357789.25198674</v>
       </c>
       <c r="E27">
-        <v>362.0076061254757</v>
+        <v>301.6505642069621</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1588,10 +1588,10 @@
         <v>152</v>
       </c>
       <c r="D28">
-        <v>3460603.773449443</v>
+        <v>2390180.228794292</v>
       </c>
       <c r="E28">
-        <v>421.4238997723098</v>
+        <v>291.0949149186585</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>153</v>
       </c>
       <c r="D29">
-        <v>69614.57554940245</v>
+        <v>30123.74069990642</v>
       </c>
       <c r="E29">
-        <v>430.7315819531696</v>
+        <v>186.4009137635637</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1622,10 +1622,10 @@
         <v>154</v>
       </c>
       <c r="D30">
-        <v>1049385.07332115</v>
+        <v>1052262.310242211</v>
       </c>
       <c r="E30">
-        <v>302.8107304566036</v>
+        <v>302.8871310894114</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1639,10 +1639,10 @@
         <v>155</v>
       </c>
       <c r="D31">
-        <v>142115602.4327385</v>
+        <v>134888186.3345802</v>
       </c>
       <c r="E31">
-        <v>266.8223211051719</v>
+        <v>252.4821152921277</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1656,10 +1656,10 @@
         <v>156</v>
       </c>
       <c r="D32">
-        <v>887929.6794939399</v>
+        <v>509728.8305293217</v>
       </c>
       <c r="E32">
-        <v>456.7120817755904</v>
+        <v>262.1816762103072</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1673,10 +1673,10 @@
         <v>157</v>
       </c>
       <c r="D33">
-        <v>135306.7571897056</v>
+        <v>58564.59256128633</v>
       </c>
       <c r="E33">
-        <v>345.4160401002507</v>
+        <v>149.4985190248348</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1690,10 +1690,10 @@
         <v>158</v>
       </c>
       <c r="D34">
-        <v>244113232.5957108</v>
+        <v>180218091.4576364</v>
       </c>
       <c r="E34">
-        <v>467.365881563836</v>
+        <v>345.0641970672684</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1707,10 +1707,10 @@
         <v>159</v>
       </c>
       <c r="D35">
-        <v>251722.8560140113</v>
+        <v>161352.3605105435</v>
       </c>
       <c r="E35">
-        <v>372.6763616408286</v>
+        <v>238.8762518864042</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1724,10 +1724,10 @@
         <v>160</v>
       </c>
       <c r="D36">
-        <v>343185904.22323</v>
+        <v>254139536.1059563</v>
       </c>
       <c r="E36">
-        <v>408.9466965875753</v>
+        <v>302.8527991200988</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1741,10 +1741,10 @@
         <v>161</v>
       </c>
       <c r="D37">
-        <v>26965373.80103025</v>
+        <v>17967798.67963941</v>
       </c>
       <c r="E37">
-        <v>363.5372131018832</v>
+        <v>242.2668044998935</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1758,10 +1758,10 @@
         <v>162</v>
       </c>
       <c r="D38">
-        <v>21157.8908271734</v>
+        <v>15222.19294805688</v>
       </c>
       <c r="E38">
-        <v>442</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1775,10 +1775,10 @@
         <v>163</v>
       </c>
       <c r="D39">
-        <v>23932212.581799</v>
+        <v>27546630.32508416</v>
       </c>
       <c r="E39">
-        <v>296.2477205531489</v>
+        <v>340.9881443033711</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1792,10 +1792,10 @@
         <v>164</v>
       </c>
       <c r="D40">
-        <v>51732.68997711559</v>
+        <v>36649.9225169</v>
       </c>
       <c r="E40">
-        <v>415</v>
+        <v>293.946754194019</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1809,10 +1809,10 @@
         <v>165</v>
       </c>
       <c r="D41">
-        <v>171820.3545710901</v>
+        <v>39895.17982760975</v>
       </c>
       <c r="E41">
-        <v>375.3342075683777</v>
+        <v>87.14968152866243</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1826,10 +1826,10 @@
         <v>166</v>
       </c>
       <c r="D42">
-        <v>2330633.167391757</v>
+        <v>885434.3543063896</v>
       </c>
       <c r="E42">
-        <v>331.3860295961876</v>
+        <v>126.0929270127916</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1843,10 +1843,10 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>4154.960578256037</v>
+        <v>3832.726087826929</v>
       </c>
       <c r="E43">
-        <v>480</v>
+        <v>442.7608695652174</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1860,10 +1860,10 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>48609.0384374563</v>
+        <v>37188.73218743187</v>
       </c>
       <c r="E44">
-        <v>311.1652846876727</v>
+        <v>238.1420674405749</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1877,10 +1877,10 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>32591633.6136471</v>
+        <v>27777233.11535778</v>
       </c>
       <c r="E45">
-        <v>296.5876373776962</v>
+        <v>252.6391308890838</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1894,10 +1894,10 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>116329421.5295288</v>
+        <v>88482468.85493308</v>
       </c>
       <c r="E46">
-        <v>504.2852902270414</v>
+        <v>383.5395627563006</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1911,10 +1911,10 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>11170.63807162057</v>
+        <v>7168.958807102751</v>
       </c>
       <c r="E47">
-        <v>351.4956268221574</v>
+        <v>225.5276967930029</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1928,10 +1928,10 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>94859610.0687795</v>
+        <v>73768741.51425749</v>
       </c>
       <c r="E48">
-        <v>333.5883493082087</v>
+        <v>259.4564519589018</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1945,10 +1945,10 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>455910.0744417097</v>
+        <v>192236.5616239771</v>
       </c>
       <c r="E49">
-        <v>315.9772121366002</v>
+        <v>133.2337184207186</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1962,10 +1962,10 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>18191.53047609485</v>
+        <v>8716.130260762404</v>
       </c>
       <c r="E50">
-        <v>413.5928270042194</v>
+        <v>198.1645569620253</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1979,10 +1979,10 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>12296971.02478728</v>
+        <v>11183896.13239296</v>
       </c>
       <c r="E51">
-        <v>333.7365341663572</v>
+        <v>303.5563003362961</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1996,10 +1996,10 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>164434397.6887976</v>
+        <v>102199525.5028022</v>
       </c>
       <c r="E52">
-        <v>468.4640679456191</v>
+        <v>291.2506445992024</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2013,10 +2013,10 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>14536.74492393509</v>
+        <v>9385.807398120009</v>
       </c>
       <c r="E53">
-        <v>323.9627329192547</v>
+        <v>209.1718426501035</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2030,10 +2030,10 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>13378.87845664257</v>
+        <v>6586.883043173209</v>
       </c>
       <c r="E54">
-        <v>415</v>
+        <v>204.32</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2047,10 +2047,10 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>180099.5883977142</v>
+        <v>137768.1470960499</v>
       </c>
       <c r="E55">
-        <v>267</v>
+        <v>204.2438356164384</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2064,10 +2064,10 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>59170792.41316127</v>
+        <v>46765915.29091077</v>
       </c>
       <c r="E56">
-        <v>387.1725641892931</v>
+        <v>305.9673558623659</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2081,10 +2081,10 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>381929.3965123239</v>
+        <v>187320.6994668432</v>
       </c>
       <c r="E57">
-        <v>440.0550564145424</v>
+        <v>215.8254283326368</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2098,10 +2098,10 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>309799501.8323431</v>
+        <v>229228746.6150097</v>
       </c>
       <c r="E58">
-        <v>308.3011371732759</v>
+        <v>228.3256420520845</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2115,10 +2115,10 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>1137988.342734369</v>
+        <v>897240.2728344863</v>
       </c>
       <c r="E59">
-        <v>397.6330287335467</v>
+        <v>313.5114967175799</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2132,10 +2132,10 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>97174.08686681243</v>
+        <v>38502.08389161018</v>
       </c>
       <c r="E60">
-        <v>528.1853535353536</v>
+        <v>209.2762626262626</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2149,10 +2149,10 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>57826866.59192485</v>
+        <v>68314588.34775881</v>
       </c>
       <c r="E61">
-        <v>128.878884150048</v>
+        <v>152.2536897546112</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2166,10 +2166,10 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>56163.25866337197</v>
+        <v>28348.1807328689</v>
       </c>
       <c r="E62">
-        <v>278.1661708457289</v>
+        <v>140.9396515087123</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2183,10 +2183,10 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>3713448.622766814</v>
+        <v>1624929.030891601</v>
       </c>
       <c r="E63">
-        <v>426.6257755736267</v>
+        <v>186.6441836038592</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2200,10 +2200,10 @@
         <v>188</v>
       </c>
       <c r="D64">
-        <v>77856727.90177715</v>
+        <v>54668251.74263072</v>
       </c>
       <c r="E64">
-        <v>446.7435140943928</v>
+        <v>313.6846788326896</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2217,10 +2217,10 @@
         <v>189</v>
       </c>
       <c r="D65">
-        <v>4669017.677378537</v>
+        <v>5300408.926359937</v>
       </c>
       <c r="E65">
-        <v>262.3647470664167</v>
+        <v>297.8455785095431</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2234,10 +2234,10 @@
         <v>190</v>
       </c>
       <c r="D66">
-        <v>67399023.20832901</v>
+        <v>71874363.04654826</v>
       </c>
       <c r="E66">
-        <v>225.8826036777251</v>
+        <v>241.3812455734597</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2251,10 +2251,10 @@
         <v>191</v>
       </c>
       <c r="D67">
-        <v>10500.32413005031</v>
+        <v>4341.631784915092</v>
       </c>
       <c r="E67">
-        <v>505</v>
+        <v>208.8062015503876</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2268,10 +2268,10 @@
         <v>192</v>
       </c>
       <c r="D68">
-        <v>366865931.4913002</v>
+        <v>351441965.5529776</v>
       </c>
       <c r="E68">
-        <v>322.9791100192699</v>
+        <v>308.7754366138677</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2285,10 +2285,10 @@
         <v>193</v>
       </c>
       <c r="D69">
-        <v>3662.950203168838</v>
+        <v>1954.832458412146</v>
       </c>
       <c r="E69">
-        <v>338.1623931623932</v>
+        <v>180.4700854700855</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2302,10 +2302,10 @@
         <v>194</v>
       </c>
       <c r="D70">
-        <v>9926399.73520693</v>
+        <v>8219102.398346303</v>
       </c>
       <c r="E70">
-        <v>351.4038448726149</v>
+        <v>290.8744770013858</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2319,10 +2319,10 @@
         <v>195</v>
       </c>
       <c r="D71">
-        <v>100142.5593934713</v>
+        <v>61553.92465389182</v>
       </c>
       <c r="E71">
-        <v>287.500524383849</v>
+        <v>176.7115888830624</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2336,10 +2336,10 @@
         <v>196</v>
       </c>
       <c r="D72">
-        <v>1451.798669879705</v>
+        <v>1247.001880511293</v>
       </c>
       <c r="E72">
-        <v>415</v>
+        <v>356.2307692307692</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2353,10 +2353,10 @@
         <v>197</v>
       </c>
       <c r="D73">
-        <v>125634772.6720068</v>
+        <v>82857843.02187102</v>
       </c>
       <c r="E73">
-        <v>450.9912220400287</v>
+        <v>297.5893696574856</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2370,10 +2370,10 @@
         <v>198</v>
       </c>
       <c r="D74">
-        <v>38865.51353639762</v>
+        <v>25701.88638862568</v>
       </c>
       <c r="E74">
-        <v>407.506329113924</v>
+        <v>269.4761441090555</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2387,10 +2387,10 @@
         <v>199</v>
       </c>
       <c r="D75">
-        <v>2373733.193135263</v>
+        <v>1259315.336836906</v>
       </c>
       <c r="E75">
-        <v>534.9420069988065</v>
+        <v>283.8000687743997</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2404,10 +2404,10 @@
         <v>200</v>
       </c>
       <c r="D76">
-        <v>222848.2604029067</v>
+        <v>91441.70154096288</v>
       </c>
       <c r="E76">
-        <v>312.7843444227006</v>
+        <v>128.3587736464449</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2421,10 +2421,10 @@
         <v>201</v>
       </c>
       <c r="D77">
-        <v>566.3728617339877</v>
+        <v>293.5799366333445</v>
       </c>
       <c r="E77">
-        <v>441.7857142857143</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2438,10 +2438,10 @@
         <v>202</v>
       </c>
       <c r="D78">
-        <v>8063047.310254373</v>
+        <v>6132600.093347451</v>
       </c>
       <c r="E78">
-        <v>423.2307282356991</v>
+        <v>321.8496696268977</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2455,10 +2455,10 @@
         <v>203</v>
       </c>
       <c r="D79">
-        <v>57003998.76287887</v>
+        <v>38304524.47353156</v>
       </c>
       <c r="E79">
-        <v>376.2347953421486</v>
+        <v>252.8084129183223</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2472,10 +2472,10 @@
         <v>204</v>
       </c>
       <c r="D80">
-        <v>54264651.8121212</v>
+        <v>50105201.85425343</v>
       </c>
       <c r="E80">
-        <v>247.802168111975</v>
+        <v>228.8021548699009</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2489,10 +2489,10 @@
         <v>205</v>
       </c>
       <c r="D81">
-        <v>1710028.792071431</v>
+        <v>915944.3271472427</v>
       </c>
       <c r="E81">
-        <v>500.2477977684053</v>
+        <v>267.949682344776</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2506,10 +2506,10 @@
         <v>206</v>
       </c>
       <c r="D82">
-        <v>14547886.74844078</v>
+        <v>11508536.10075526</v>
       </c>
       <c r="E82">
-        <v>238.7503918501243</v>
+        <v>188.8707220815321</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2523,10 +2523,10 @@
         <v>207</v>
       </c>
       <c r="D83">
-        <v>75900052.9111176</v>
+        <v>47805067.37955</v>
       </c>
       <c r="E83">
-        <v>284.0820584469155</v>
+        <v>178.9456738368617</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2540,10 +2540,10 @@
         <v>208</v>
       </c>
       <c r="D84">
-        <v>10397270.40253981</v>
+        <v>8837427.786331216</v>
       </c>
       <c r="E84">
-        <v>406.7423264798202</v>
+        <v>345.7245853531695</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2557,10 +2557,10 @@
         <v>209</v>
       </c>
       <c r="D85">
-        <v>71957.76215994389</v>
+        <v>45837.86228487966</v>
       </c>
       <c r="E85">
-        <v>374.7200193423598</v>
+        <v>238.7006769825919</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2574,10 +2574,10 @@
         <v>210</v>
       </c>
       <c r="D86">
-        <v>7156344.959657998</v>
+        <v>8054243.760839526</v>
       </c>
       <c r="E86">
-        <v>287.3831397779447</v>
+        <v>323.4285238611433</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2591,10 +2591,10 @@
         <v>211</v>
       </c>
       <c r="D87">
-        <v>16665840.52874894</v>
+        <v>18719310.60291899</v>
       </c>
       <c r="E87">
-        <v>262.3230850781871</v>
+        <v>294.6656149399786</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2608,10 +2608,10 @@
         <v>212</v>
       </c>
       <c r="D88">
-        <v>21486.68099872306</v>
+        <v>20680.89339678339</v>
       </c>
       <c r="E88">
-        <v>415</v>
+        <v>399.4392857142857</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2625,10 +2625,10 @@
         <v>213</v>
       </c>
       <c r="D89">
-        <v>3687694.885786559</v>
+        <v>1520940.244827023</v>
       </c>
       <c r="E89">
-        <v>359.6384976525821</v>
+        <v>148.262064732328</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2642,10 +2642,10 @@
         <v>214</v>
       </c>
       <c r="D90">
-        <v>236395.8699767577</v>
+        <v>105072.1825743573</v>
       </c>
       <c r="E90">
-        <v>337.5842105263158</v>
+        <v>150.0549422336329</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2659,10 +2659,10 @@
         <v>215</v>
       </c>
       <c r="D91">
-        <v>45727140.40650222</v>
+        <v>54438366.16215391</v>
       </c>
       <c r="E91">
-        <v>248.5206022003241</v>
+        <v>295.8582383089508</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2676,10 +2676,10 @@
         <v>216</v>
       </c>
       <c r="D92">
-        <v>644542.8899300435</v>
+        <v>395821.9938225349</v>
       </c>
       <c r="E92">
-        <v>410.2595774320873</v>
+        <v>251.9199558857674</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2693,10 +2693,10 @@
         <v>217</v>
       </c>
       <c r="D93">
-        <v>21903050.42345865</v>
+        <v>14329114.92964269</v>
       </c>
       <c r="E93">
-        <v>365.8324777523324</v>
+        <v>239.2574673777723</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2710,10 +2710,10 @@
         <v>218</v>
       </c>
       <c r="D94">
-        <v>41359758.93624693</v>
+        <v>42572252.63369574</v>
       </c>
       <c r="E94">
-        <v>274.2328139230241</v>
+        <v>282.2706849229618</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2727,10 +2727,10 @@
         <v>219</v>
       </c>
       <c r="D95">
-        <v>10821705.338766</v>
+        <v>9426591.308900256</v>
       </c>
       <c r="E95">
-        <v>290.9911510147234</v>
+        <v>253.4841971746916</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2744,10 +2744,10 @@
         <v>220</v>
       </c>
       <c r="D96">
-        <v>5128190.462614103</v>
+        <v>5285406.042810278</v>
       </c>
       <c r="E96">
-        <v>281.8101266480348</v>
+        <v>290.4558498093526</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2761,10 +2761,10 @@
         <v>221</v>
       </c>
       <c r="D97">
-        <v>6354818.355589933</v>
+        <v>3897564.237523476</v>
       </c>
       <c r="E97">
-        <v>350.9657270930287</v>
+        <v>215.1633125288591</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2778,10 +2778,10 @@
         <v>222</v>
       </c>
       <c r="D98">
-        <v>17446621.07372835</v>
+        <v>18329303.4080512</v>
       </c>
       <c r="E98">
-        <v>281.1233322466615</v>
+        <v>295.3559486269626</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2795,10 +2795,10 @@
         <v>223</v>
       </c>
       <c r="D99">
-        <v>61407.45018944422</v>
+        <v>46546.16082949706</v>
       </c>
       <c r="E99">
-        <v>415</v>
+        <v>314.5634615384615</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2812,10 +2812,10 @@
         <v>224</v>
       </c>
       <c r="D100">
-        <v>12516.37932929045</v>
+        <v>7446.596136935084</v>
       </c>
       <c r="E100">
-        <v>366.6728723404256</v>
+        <v>218.1515957446809</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2829,10 +2829,10 @@
         <v>225</v>
       </c>
       <c r="D101">
-        <v>558.15845448863</v>
+        <v>292.998269758562</v>
       </c>
       <c r="E101">
-        <v>441</v>
+        <v>231.5</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2846,10 +2846,10 @@
         <v>226</v>
       </c>
       <c r="D102">
-        <v>68106470.24569437</v>
+        <v>68803213.20975104</v>
       </c>
       <c r="E102">
-        <v>247.0604664246758</v>
+        <v>249.6610690989603</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2863,10 +2863,10 @@
         <v>227</v>
       </c>
       <c r="D103">
-        <v>39407.20231713956</v>
+        <v>25436.59030782033</v>
       </c>
       <c r="E103">
-        <v>413</v>
+        <v>266.619801980198</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2880,10 +2880,10 @@
         <v>228</v>
       </c>
       <c r="D104">
-        <v>312836774.1942145</v>
+        <v>227963903.8213836</v>
       </c>
       <c r="E104">
-        <v>315.0278238359616</v>
+        <v>229.8523002636722</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2897,10 +2897,10 @@
         <v>229</v>
       </c>
       <c r="D105">
-        <v>13493.40995533783</v>
+        <v>7856.378846207877</v>
       </c>
       <c r="E105">
-        <v>415</v>
+        <v>241.6162790697674</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2914,10 +2914,10 @@
         <v>230</v>
       </c>
       <c r="D106">
-        <v>10760166.6532018</v>
+        <v>9651996.126564687</v>
       </c>
       <c r="E106">
-        <v>321.4159302119135</v>
+        <v>288.3608968362699</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="D107">
-        <v>1950719.839926291</v>
+        <v>1246055.732198325</v>
       </c>
       <c r="E107">
-        <v>359.5554720673808</v>
+        <v>229.6687577542069</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="D108">
-        <v>123353927.6948879</v>
+        <v>89586469.26414083</v>
       </c>
       <c r="E108">
-        <v>437.1365676079824</v>
+        <v>317.5768271022653</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2965,10 +2965,10 @@
         <v>233</v>
       </c>
       <c r="D109">
-        <v>3249427.285034537</v>
+        <v>1398306.874568571</v>
       </c>
       <c r="E109">
-        <v>570.9334447828389</v>
+        <v>245.6894034692797</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2982,10 +2982,10 @@
         <v>234</v>
       </c>
       <c r="D110">
-        <v>192413264.0987372</v>
+        <v>130278086.5688047</v>
       </c>
       <c r="E110">
-        <v>426.8290634422293</v>
+        <v>288.9546798870771</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2999,10 +2999,10 @@
         <v>235</v>
       </c>
       <c r="D111">
-        <v>2592.105179637632</v>
+        <v>1554.180215688847</v>
       </c>
       <c r="E111">
-        <v>441</v>
+        <v>264.4153846153846</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3016,10 +3016,10 @@
         <v>236</v>
       </c>
       <c r="D112">
-        <v>133449.1215834816</v>
+        <v>101364.247248466</v>
       </c>
       <c r="E112">
-        <v>347.4743401759531</v>
+        <v>263.6906158357771</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3033,10 +3033,10 @@
         <v>237</v>
       </c>
       <c r="D113">
-        <v>8766661.083376152</v>
+        <v>4487257.765150633</v>
       </c>
       <c r="E113">
-        <v>576.3926789168841</v>
+        <v>295.0282339818629</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3050,10 +3050,10 @@
         <v>238</v>
       </c>
       <c r="D114">
-        <v>11439.2194613237</v>
+        <v>8205.265122995555</v>
       </c>
       <c r="E114">
-        <v>415</v>
+        <v>297.6778523489933</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3067,10 +3067,10 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <v>96031.82920569522</v>
+        <v>50597.01954857549</v>
       </c>
       <c r="E115">
-        <v>415</v>
+        <v>218.6555023923445</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="D116">
-        <v>19017.55692307391</v>
+        <v>13331.50062423837</v>
       </c>
       <c r="E116">
-        <v>402</v>
+        <v>281.8063872255489</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="D117">
-        <v>71025717.54186974</v>
+        <v>82982180.07381245</v>
       </c>
       <c r="E117">
-        <v>283.4580672876758</v>
+        <v>331.069773533604</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3118,10 +3118,10 @@
         <v>242</v>
       </c>
       <c r="D118">
-        <v>340054.5565395231</v>
+        <v>262833.7055161326</v>
       </c>
       <c r="E118">
-        <v>324.3939991043439</v>
+        <v>250.742946708464</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3135,10 +3135,10 @@
         <v>243</v>
       </c>
       <c r="D119">
-        <v>432660.3705153456</v>
+        <v>263904.7203406774</v>
       </c>
       <c r="E119">
-        <v>415</v>
+        <v>253.0577219086711</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3152,10 +3152,10 @@
         <v>244</v>
       </c>
       <c r="D120">
-        <v>2914395.721438039</v>
+        <v>2458239.207151018</v>
       </c>
       <c r="E120">
-        <v>355.8816576148967</v>
+        <v>300.1735771986673</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3169,10 +3169,10 @@
         <v>245</v>
       </c>
       <c r="D121">
-        <v>43944.01738138052</v>
+        <v>22780.44168555449</v>
       </c>
       <c r="E121">
-        <v>449.4405529953917</v>
+        <v>232.9502304147466</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3186,10 +3186,10 @@
         <v>246</v>
       </c>
       <c r="D122">
-        <v>107989.9588718489</v>
+        <v>56674.65345484063</v>
       </c>
       <c r="E122">
-        <v>415.0421016005567</v>
+        <v>217.8601252609603</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3203,10 +3203,10 @@
         <v>247</v>
       </c>
       <c r="D123">
-        <v>691714.036793157</v>
+        <v>528853.8134501519</v>
       </c>
       <c r="E123">
-        <v>261.4150949307601</v>
+        <v>199.9353969546964</v>
       </c>
     </row>
   </sheetData>
